--- a/contratos/contratos-2-2018.xlsx
+++ b/contratos/contratos-2-2018.xlsx
@@ -880,7 +880,7 @@
     <t>FIOROTTO ALBERTO M Y REY CESAR A S.R.L.</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>OBRELECTRIC S.R.L.</t>
@@ -898,7 +898,7 @@
     <t>SCHEJTER Y SCHEJTER S.A.</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>ARDETI GUSTAVO EMANUEL</t>
@@ -988,7 +988,7 @@
     <t>ELECTRONICA MEGATONE S.A.</t>
   </si>
   <si>
-    <t>FERNANDEZ, MARIO HUGO</t>
+    <t>FERNANDEZ. MARIO HUGO</t>
   </si>
   <si>
     <t>GALLICET OSCAR MARCELO</t>
@@ -1225,7 +1225,7 @@
     <t>SCEVOLA MAURICIO OSVALDO</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>INSTITUTO AUTARQUICO PROVINCIAL DEL SEGURO</t>
@@ -1753,703 +1753,703 @@
     <t>9</t>
   </si>
   <si>
-    <t>11.730,00</t>
-  </si>
-  <si>
-    <t>40.960,00</t>
-  </si>
-  <si>
-    <t>4.050,00</t>
-  </si>
-  <si>
-    <t>440.000,00</t>
-  </si>
-  <si>
-    <t>195.000,00</t>
-  </si>
-  <si>
-    <t>561.000,00</t>
-  </si>
-  <si>
-    <t>665.500,00</t>
-  </si>
-  <si>
-    <t>2.250,00</t>
-  </si>
-  <si>
-    <t>545.773,47</t>
-  </si>
-  <si>
-    <t>582.852,20</t>
-  </si>
-  <si>
-    <t>159.281,54</t>
-  </si>
-  <si>
-    <t>181.500,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>6.500,06</t>
-  </si>
-  <si>
-    <t>360,00</t>
-  </si>
-  <si>
-    <t>3.411,00</t>
-  </si>
-  <si>
-    <t>770,00</t>
-  </si>
-  <si>
-    <t>88.000,00</t>
-  </si>
-  <si>
-    <t>490.203,00</t>
-  </si>
-  <si>
-    <t>232.584,81</t>
-  </si>
-  <si>
-    <t>25.600,00</t>
-  </si>
-  <si>
-    <t>840,00</t>
-  </si>
-  <si>
-    <t>346.677,74</t>
-  </si>
-  <si>
-    <t>9.765,00</t>
-  </si>
-  <si>
-    <t>3.120,00</t>
-  </si>
-  <si>
-    <t>526,10</t>
-  </si>
-  <si>
-    <t>59.125,53</t>
-  </si>
-  <si>
-    <t>26.503,00</t>
-  </si>
-  <si>
-    <t>26.103,22</t>
-  </si>
-  <si>
-    <t>20.600,00</t>
-  </si>
-  <si>
-    <t>9.450,00</t>
-  </si>
-  <si>
-    <t>9.200,00</t>
-  </si>
-  <si>
-    <t>21.000,00</t>
-  </si>
-  <si>
-    <t>756,62</t>
-  </si>
-  <si>
-    <t>116,00</t>
-  </si>
-  <si>
-    <t>7.045,00</t>
-  </si>
-  <si>
-    <t>422,25</t>
-  </si>
-  <si>
-    <t>234.269,66</t>
-  </si>
-  <si>
-    <t>365,00</t>
-  </si>
-  <si>
-    <t>134.201,00</t>
-  </si>
-  <si>
-    <t>226.500,00</t>
-  </si>
-  <si>
-    <t>510,00</t>
-  </si>
-  <si>
-    <t>5.818,49</t>
-  </si>
-  <si>
-    <t>860,96</t>
-  </si>
-  <si>
-    <t>1.898,00</t>
-  </si>
-  <si>
-    <t>1.246,00</t>
-  </si>
-  <si>
-    <t>22.148,72</t>
-  </si>
-  <si>
-    <t>3.080,00</t>
-  </si>
-  <si>
-    <t>5.929,00</t>
-  </si>
-  <si>
-    <t>2.200,00</t>
-  </si>
-  <si>
-    <t>7.098,20</t>
-  </si>
-  <si>
-    <t>85,00</t>
-  </si>
-  <si>
-    <t>21.546,27</t>
-  </si>
-  <si>
-    <t>8.970,00</t>
-  </si>
-  <si>
-    <t>6.296,10</t>
-  </si>
-  <si>
-    <t>8.113,10</t>
-  </si>
-  <si>
-    <t>179.676,10</t>
-  </si>
-  <si>
-    <t>2.627,39</t>
-  </si>
-  <si>
-    <t>34.548,34</t>
-  </si>
-  <si>
-    <t>436.488,80</t>
-  </si>
-  <si>
-    <t>1.660,00</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>240,00</t>
-  </si>
-  <si>
-    <t>65,00</t>
-  </si>
-  <si>
-    <t>60.838,12</t>
-  </si>
-  <si>
-    <t>358.577,00</t>
-  </si>
-  <si>
-    <t>4.740,00</t>
-  </si>
-  <si>
-    <t>4.900,00</t>
-  </si>
-  <si>
-    <t>11.663,85</t>
-  </si>
-  <si>
-    <t>16.980,00</t>
-  </si>
-  <si>
-    <t>6.900,00</t>
-  </si>
-  <si>
-    <t>1.527,00</t>
-  </si>
-  <si>
-    <t>3.793,62</t>
-  </si>
-  <si>
-    <t>4.701,86</t>
-  </si>
-  <si>
-    <t>2.600,00</t>
-  </si>
-  <si>
-    <t>151,05</t>
-  </si>
-  <si>
-    <t>7.611,79</t>
-  </si>
-  <si>
-    <t>5.205,90</t>
-  </si>
-  <si>
-    <t>26.950,00</t>
-  </si>
-  <si>
-    <t>7.250,00</t>
-  </si>
-  <si>
-    <t>1.400,00</t>
-  </si>
-  <si>
-    <t>9.352,50</t>
-  </si>
-  <si>
-    <t>490,00</t>
-  </si>
-  <si>
-    <t>350,00</t>
-  </si>
-  <si>
-    <t>120,00</t>
-  </si>
-  <si>
-    <t>92.070,00</t>
-  </si>
-  <si>
-    <t>2.974,00</t>
-  </si>
-  <si>
-    <t>20.625,00</t>
-  </si>
-  <si>
-    <t>8.690,00</t>
-  </si>
-  <si>
-    <t>14.920,00</t>
-  </si>
-  <si>
-    <t>6.555,00</t>
-  </si>
-  <si>
-    <t>482,00</t>
-  </si>
-  <si>
-    <t>39.000,00</t>
-  </si>
-  <si>
-    <t>45.900,00</t>
-  </si>
-  <si>
-    <t>2.352,00</t>
-  </si>
-  <si>
-    <t>4.070,00</t>
-  </si>
-  <si>
-    <t>17,32</t>
-  </si>
-  <si>
-    <t>11,20</t>
-  </si>
-  <si>
-    <t>330,55</t>
-  </si>
-  <si>
-    <t>28,90</t>
-  </si>
-  <si>
-    <t>100,00</t>
-  </si>
-  <si>
-    <t>28.596,67</t>
-  </si>
-  <si>
-    <t>936,00</t>
-  </si>
-  <si>
-    <t>1.335,05</t>
-  </si>
-  <si>
-    <t>231,45</t>
-  </si>
-  <si>
-    <t>1.254,00</t>
-  </si>
-  <si>
-    <t>53,80</t>
-  </si>
-  <si>
-    <t>2.400,00</t>
-  </si>
-  <si>
-    <t>11.778,80</t>
-  </si>
-  <si>
-    <t>32.090,00</t>
-  </si>
-  <si>
-    <t>21.864,00</t>
-  </si>
-  <si>
-    <t>285,00</t>
-  </si>
-  <si>
-    <t>1.879,00</t>
-  </si>
-  <si>
-    <t>2.298,50</t>
-  </si>
-  <si>
-    <t>10.050,00</t>
-  </si>
-  <si>
-    <t>1.256,54</t>
-  </si>
-  <si>
-    <t>2.430,00</t>
-  </si>
-  <si>
-    <t>129,60</t>
-  </si>
-  <si>
-    <t>9.579,00</t>
-  </si>
-  <si>
-    <t>7.000,00</t>
-  </si>
-  <si>
-    <t>15.123,50</t>
-  </si>
-  <si>
-    <t>32.572,21</t>
-  </si>
-  <si>
-    <t>670,10</t>
-  </si>
-  <si>
-    <t>2.541,50</t>
-  </si>
-  <si>
-    <t>100,35</t>
-  </si>
-  <si>
-    <t>4.430,00</t>
-  </si>
-  <si>
-    <t>2.012,90</t>
-  </si>
-  <si>
-    <t>8.760,00</t>
-  </si>
-  <si>
-    <t>4.700,00</t>
-  </si>
-  <si>
-    <t>4.626,00</t>
-  </si>
-  <si>
-    <t>7.500,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>7.194,00</t>
-  </si>
-  <si>
-    <t>160.000,00</t>
-  </si>
-  <si>
-    <t>2.505,00</t>
-  </si>
-  <si>
-    <t>54.700,00</t>
-  </si>
-  <si>
-    <t>7.618,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>72.000,00</t>
-  </si>
-  <si>
-    <t>75.200,00</t>
-  </si>
-  <si>
-    <t>14.000,00</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>44.000,00</t>
-  </si>
-  <si>
-    <t>36.000,00</t>
-  </si>
-  <si>
-    <t>60.000,00</t>
-  </si>
-  <si>
-    <t>3.689,41</t>
-  </si>
-  <si>
-    <t>11.675,00</t>
-  </si>
-  <si>
-    <t>16.934,21</t>
-  </si>
-  <si>
-    <t>6.748,88</t>
-  </si>
-  <si>
-    <t>4.889,00</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>7.784,23</t>
-  </si>
-  <si>
-    <t>25.000,00</t>
-  </si>
-  <si>
-    <t>12.500,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>52.111,68</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>8.508,50</t>
-  </si>
-  <si>
-    <t>10.500,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>23.000,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>15.000,00</t>
-  </si>
-  <si>
-    <t>11.500,00</t>
-  </si>
-  <si>
-    <t>45.000,00</t>
-  </si>
-  <si>
-    <t>100.672,00</t>
-  </si>
-  <si>
-    <t>24.500,00</t>
-  </si>
-  <si>
-    <t>9.800,00</t>
-  </si>
-  <si>
-    <t>67.000,00</t>
-  </si>
-  <si>
-    <t>23.050,00</t>
-  </si>
-  <si>
-    <t>5.293,19</t>
-  </si>
-  <si>
-    <t>574,07</t>
-  </si>
-  <si>
-    <t>3.814,00</t>
-  </si>
-  <si>
-    <t>4.275,00</t>
-  </si>
-  <si>
-    <t>3.337,00</t>
-  </si>
-  <si>
-    <t>37.617,87</t>
-  </si>
-  <si>
-    <t>13.738,00</t>
-  </si>
-  <si>
-    <t>8.262,00</t>
-  </si>
-  <si>
-    <t>36,00</t>
-  </si>
-  <si>
-    <t>22.445,50</t>
-  </si>
-  <si>
-    <t>5.715,00</t>
-  </si>
-  <si>
-    <t>1.210,00</t>
-  </si>
-  <si>
-    <t>7.199,15</t>
-  </si>
-  <si>
-    <t>655,74</t>
-  </si>
-  <si>
-    <t>117.000,00</t>
-  </si>
-  <si>
-    <t>4.781,20</t>
-  </si>
-  <si>
-    <t>28.166,04</t>
-  </si>
-  <si>
-    <t>1.710,00</t>
-  </si>
-  <si>
-    <t>21.319,98</t>
-  </si>
-  <si>
-    <t>28.590,00</t>
-  </si>
-  <si>
-    <t>4.269,12</t>
-  </si>
-  <si>
-    <t>16.004,90</t>
-  </si>
-  <si>
-    <t>7.382,00</t>
-  </si>
-  <si>
-    <t>110,00</t>
-  </si>
-  <si>
-    <t>1.092,60</t>
-  </si>
-  <si>
-    <t>5.674,00</t>
-  </si>
-  <si>
-    <t>467,50</t>
-  </si>
-  <si>
-    <t>1.304,00</t>
-  </si>
-  <si>
-    <t>16.272,00</t>
-  </si>
-  <si>
-    <t>7.306,24</t>
-  </si>
-  <si>
-    <t>21.534,74</t>
-  </si>
-  <si>
-    <t>8.500,00</t>
-  </si>
-  <si>
-    <t>30.000,00</t>
-  </si>
-  <si>
-    <t>9.000,00</t>
-  </si>
-  <si>
-    <t>1.148,25</t>
-  </si>
-  <si>
-    <t>14.400,00</t>
-  </si>
-  <si>
-    <t>2.390,00</t>
-  </si>
-  <si>
-    <t>13.950,00</t>
-  </si>
-  <si>
-    <t>3.850.698,08</t>
-  </si>
-  <si>
-    <t>135.500,00</t>
-  </si>
-  <si>
-    <t>144.500,00</t>
-  </si>
-  <si>
-    <t>145.000,00</t>
-  </si>
-  <si>
-    <t>239.000,00</t>
-  </si>
-  <si>
-    <t>324.000,00</t>
-  </si>
-  <si>
-    <t>342.500,00</t>
-  </si>
-  <si>
-    <t>244.000,00</t>
-  </si>
-  <si>
-    <t>4.750,00</t>
-  </si>
-  <si>
-    <t>54.667,53</t>
-  </si>
-  <si>
-    <t>5.345.897,56</t>
-  </si>
-  <si>
-    <t>80.000,00</t>
-  </si>
-  <si>
-    <t>35.040,55</t>
-  </si>
-  <si>
-    <t>6.700,00</t>
-  </si>
-  <si>
-    <t>16.000,00</t>
-  </si>
-  <si>
-    <t>36.196,66</t>
-  </si>
-  <si>
-    <t>70.000,00</t>
-  </si>
-  <si>
-    <t>13.499,99</t>
-  </si>
-  <si>
-    <t>8.550,00</t>
-  </si>
-  <si>
-    <t>27.072,50</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>480,00</t>
-  </si>
-  <si>
-    <t>26.168,00</t>
+    <t>11730.00</t>
+  </si>
+  <si>
+    <t>40960.00</t>
+  </si>
+  <si>
+    <t>4050.00</t>
+  </si>
+  <si>
+    <t>440000.00</t>
+  </si>
+  <si>
+    <t>195000.00</t>
+  </si>
+  <si>
+    <t>561000.00</t>
+  </si>
+  <si>
+    <t>665500.00</t>
+  </si>
+  <si>
+    <t>2250.00</t>
+  </si>
+  <si>
+    <t>545773.47</t>
+  </si>
+  <si>
+    <t>582852.20</t>
+  </si>
+  <si>
+    <t>159281.54</t>
+  </si>
+  <si>
+    <t>181500.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>6500.06</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>3411.00</t>
+  </si>
+  <si>
+    <t>770.00</t>
+  </si>
+  <si>
+    <t>88000.00</t>
+  </si>
+  <si>
+    <t>490203.00</t>
+  </si>
+  <si>
+    <t>232584.81</t>
+  </si>
+  <si>
+    <t>25600.00</t>
+  </si>
+  <si>
+    <t>840.00</t>
+  </si>
+  <si>
+    <t>346677.74</t>
+  </si>
+  <si>
+    <t>9765.00</t>
+  </si>
+  <si>
+    <t>3120.00</t>
+  </si>
+  <si>
+    <t>526.10</t>
+  </si>
+  <si>
+    <t>59125.53</t>
+  </si>
+  <si>
+    <t>26503.00</t>
+  </si>
+  <si>
+    <t>26103.22</t>
+  </si>
+  <si>
+    <t>20600.00</t>
+  </si>
+  <si>
+    <t>9450.00</t>
+  </si>
+  <si>
+    <t>9200.00</t>
+  </si>
+  <si>
+    <t>21000.00</t>
+  </si>
+  <si>
+    <t>756.62</t>
+  </si>
+  <si>
+    <t>116.00</t>
+  </si>
+  <si>
+    <t>7045.00</t>
+  </si>
+  <si>
+    <t>422.25</t>
+  </si>
+  <si>
+    <t>234269.66</t>
+  </si>
+  <si>
+    <t>365.00</t>
+  </si>
+  <si>
+    <t>134201.00</t>
+  </si>
+  <si>
+    <t>226500.00</t>
+  </si>
+  <si>
+    <t>510.00</t>
+  </si>
+  <si>
+    <t>5818.49</t>
+  </si>
+  <si>
+    <t>860.96</t>
+  </si>
+  <si>
+    <t>1898.00</t>
+  </si>
+  <si>
+    <t>1246.00</t>
+  </si>
+  <si>
+    <t>22148.72</t>
+  </si>
+  <si>
+    <t>3080.00</t>
+  </si>
+  <si>
+    <t>5929.00</t>
+  </si>
+  <si>
+    <t>2200.00</t>
+  </si>
+  <si>
+    <t>7098.20</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>21546.27</t>
+  </si>
+  <si>
+    <t>8970.00</t>
+  </si>
+  <si>
+    <t>6296.10</t>
+  </si>
+  <si>
+    <t>8113.10</t>
+  </si>
+  <si>
+    <t>179676.10</t>
+  </si>
+  <si>
+    <t>2627.39</t>
+  </si>
+  <si>
+    <t>34548.34</t>
+  </si>
+  <si>
+    <t>436488.80</t>
+  </si>
+  <si>
+    <t>1660.00</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>60838.12</t>
+  </si>
+  <si>
+    <t>358577.00</t>
+  </si>
+  <si>
+    <t>4740.00</t>
+  </si>
+  <si>
+    <t>4900.00</t>
+  </si>
+  <si>
+    <t>11663.85</t>
+  </si>
+  <si>
+    <t>16980.00</t>
+  </si>
+  <si>
+    <t>6900.00</t>
+  </si>
+  <si>
+    <t>1527.00</t>
+  </si>
+  <si>
+    <t>3793.62</t>
+  </si>
+  <si>
+    <t>4701.86</t>
+  </si>
+  <si>
+    <t>2600.00</t>
+  </si>
+  <si>
+    <t>151.05</t>
+  </si>
+  <si>
+    <t>7611.79</t>
+  </si>
+  <si>
+    <t>5205.90</t>
+  </si>
+  <si>
+    <t>26950.00</t>
+  </si>
+  <si>
+    <t>7250.00</t>
+  </si>
+  <si>
+    <t>1400.00</t>
+  </si>
+  <si>
+    <t>9352.50</t>
+  </si>
+  <si>
+    <t>490.00</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>92070.00</t>
+  </si>
+  <si>
+    <t>2974.00</t>
+  </si>
+  <si>
+    <t>20625.00</t>
+  </si>
+  <si>
+    <t>8690.00</t>
+  </si>
+  <si>
+    <t>14920.00</t>
+  </si>
+  <si>
+    <t>6555.00</t>
+  </si>
+  <si>
+    <t>482.00</t>
+  </si>
+  <si>
+    <t>39000.00</t>
+  </si>
+  <si>
+    <t>45900.00</t>
+  </si>
+  <si>
+    <t>2352.00</t>
+  </si>
+  <si>
+    <t>4070.00</t>
+  </si>
+  <si>
+    <t>17.32</t>
+  </si>
+  <si>
+    <t>11.20</t>
+  </si>
+  <si>
+    <t>330.55</t>
+  </si>
+  <si>
+    <t>28.90</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>28596.67</t>
+  </si>
+  <si>
+    <t>936.00</t>
+  </si>
+  <si>
+    <t>1335.05</t>
+  </si>
+  <si>
+    <t>231.45</t>
+  </si>
+  <si>
+    <t>1254.00</t>
+  </si>
+  <si>
+    <t>53.80</t>
+  </si>
+  <si>
+    <t>2400.00</t>
+  </si>
+  <si>
+    <t>11778.80</t>
+  </si>
+  <si>
+    <t>32090.00</t>
+  </si>
+  <si>
+    <t>21864.00</t>
+  </si>
+  <si>
+    <t>285.00</t>
+  </si>
+  <si>
+    <t>1879.00</t>
+  </si>
+  <si>
+    <t>2298.50</t>
+  </si>
+  <si>
+    <t>10050.00</t>
+  </si>
+  <si>
+    <t>1256.54</t>
+  </si>
+  <si>
+    <t>2430.00</t>
+  </si>
+  <si>
+    <t>129.60</t>
+  </si>
+  <si>
+    <t>9579.00</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>15123.50</t>
+  </si>
+  <si>
+    <t>32572.21</t>
+  </si>
+  <si>
+    <t>670.10</t>
+  </si>
+  <si>
+    <t>2541.50</t>
+  </si>
+  <si>
+    <t>100.35</t>
+  </si>
+  <si>
+    <t>4430.00</t>
+  </si>
+  <si>
+    <t>2012.90</t>
+  </si>
+  <si>
+    <t>8760.00</t>
+  </si>
+  <si>
+    <t>4700.00</t>
+  </si>
+  <si>
+    <t>4626.00</t>
+  </si>
+  <si>
+    <t>7500.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>7194.00</t>
+  </si>
+  <si>
+    <t>160000.00</t>
+  </si>
+  <si>
+    <t>2505.00</t>
+  </si>
+  <si>
+    <t>54700.00</t>
+  </si>
+  <si>
+    <t>7618.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>72000.00</t>
+  </si>
+  <si>
+    <t>75200.00</t>
+  </si>
+  <si>
+    <t>14000.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>44000.00</t>
+  </si>
+  <si>
+    <t>36000.00</t>
+  </si>
+  <si>
+    <t>60000.00</t>
+  </si>
+  <si>
+    <t>3689.41</t>
+  </si>
+  <si>
+    <t>11675.00</t>
+  </si>
+  <si>
+    <t>16934.21</t>
+  </si>
+  <si>
+    <t>6748.88</t>
+  </si>
+  <si>
+    <t>4889.00</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>7784.23</t>
+  </si>
+  <si>
+    <t>25000.00</t>
+  </si>
+  <si>
+    <t>12500.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>52111.68</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>8508.50</t>
+  </si>
+  <si>
+    <t>10500.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>23000.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>11500.00</t>
+  </si>
+  <si>
+    <t>45000.00</t>
+  </si>
+  <si>
+    <t>100672.00</t>
+  </si>
+  <si>
+    <t>24500.00</t>
+  </si>
+  <si>
+    <t>9800.00</t>
+  </si>
+  <si>
+    <t>67000.00</t>
+  </si>
+  <si>
+    <t>23050.00</t>
+  </si>
+  <si>
+    <t>5293.19</t>
+  </si>
+  <si>
+    <t>574.07</t>
+  </si>
+  <si>
+    <t>3814.00</t>
+  </si>
+  <si>
+    <t>4275.00</t>
+  </si>
+  <si>
+    <t>3337.00</t>
+  </si>
+  <si>
+    <t>37617.87</t>
+  </si>
+  <si>
+    <t>13738.00</t>
+  </si>
+  <si>
+    <t>8262.00</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>22445.50</t>
+  </si>
+  <si>
+    <t>5715.00</t>
+  </si>
+  <si>
+    <t>1210.00</t>
+  </si>
+  <si>
+    <t>7199.15</t>
+  </si>
+  <si>
+    <t>655.74</t>
+  </si>
+  <si>
+    <t>117000.00</t>
+  </si>
+  <si>
+    <t>4781.20</t>
+  </si>
+  <si>
+    <t>28166.04</t>
+  </si>
+  <si>
+    <t>1710.00</t>
+  </si>
+  <si>
+    <t>21319.98</t>
+  </si>
+  <si>
+    <t>28590.00</t>
+  </si>
+  <si>
+    <t>4269.12</t>
+  </si>
+  <si>
+    <t>16004.90</t>
+  </si>
+  <si>
+    <t>7382.00</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>1092.60</t>
+  </si>
+  <si>
+    <t>5674.00</t>
+  </si>
+  <si>
+    <t>467.50</t>
+  </si>
+  <si>
+    <t>1304.00</t>
+  </si>
+  <si>
+    <t>16272.00</t>
+  </si>
+  <si>
+    <t>7306.24</t>
+  </si>
+  <si>
+    <t>21534.74</t>
+  </si>
+  <si>
+    <t>8500.00</t>
+  </si>
+  <si>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>1148.25</t>
+  </si>
+  <si>
+    <t>14400.00</t>
+  </si>
+  <si>
+    <t>2390.00</t>
+  </si>
+  <si>
+    <t>13950.00</t>
+  </si>
+  <si>
+    <t>3850698.08</t>
+  </si>
+  <si>
+    <t>135500.00</t>
+  </si>
+  <si>
+    <t>144500.00</t>
+  </si>
+  <si>
+    <t>145000.00</t>
+  </si>
+  <si>
+    <t>239000.00</t>
+  </si>
+  <si>
+    <t>324000.00</t>
+  </si>
+  <si>
+    <t>342500.00</t>
+  </si>
+  <si>
+    <t>244000.00</t>
+  </si>
+  <si>
+    <t>4750.00</t>
+  </si>
+  <si>
+    <t>54667.53</t>
+  </si>
+  <si>
+    <t>5345897.56</t>
+  </si>
+  <si>
+    <t>80000.00</t>
+  </si>
+  <si>
+    <t>35040.55</t>
+  </si>
+  <si>
+    <t>6700.00</t>
+  </si>
+  <si>
+    <t>16000.00</t>
+  </si>
+  <si>
+    <t>36196.66</t>
+  </si>
+  <si>
+    <t>70000.00</t>
+  </si>
+  <si>
+    <t>13499.99</t>
+  </si>
+  <si>
+    <t>8550.00</t>
+  </si>
+  <si>
+    <t>27072.50</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>480.00</t>
+  </si>
+  <si>
+    <t>26168.00</t>
   </si>
 </sst>
 </file>
